--- a/src/attributions/attributions_ig_traj_484.xlsx
+++ b/src/attributions/attributions_ig_traj_484.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>-0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>-0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>-0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>-0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>-0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>-0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>-0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>-0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>-0</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>-0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>-0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>-0</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1573,157 +1573,157 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.03442535457671645</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2903772844798447</v>
+        <v>-0.2182670459609618</v>
       </c>
       <c r="D3" t="n">
         <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3252367045915665</v>
+        <v>-0.1143832955586387</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3859015779478837</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0.01838358167342647</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2691123373409763</v>
+        <v>-0.05811834589057453</v>
       </c>
       <c r="M3" t="n">
         <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.01901305211145214</v>
+        <v>-0.001889732496166407</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
         <v>-0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.2065136015413914</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0</v>
+        <v>0.01416011993220665</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1349359823258977</v>
+        <v>-0.1679359403701563</v>
       </c>
       <c r="V3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.0001604181039029922</v>
+        <v>-0.03562829758590747</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.06859842934071846</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>0.04648225225758647</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.05909235118462174</v>
+        <v>-0.04083604882128948</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1831262492320889</v>
+        <v>-0.1268638220804145</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.07857008022914018</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>-0.01905924629173834</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1733567898030805</v>
+        <v>0.06377782389037803</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.0416159938827116</v>
+        <v>0.07630858201542405</v>
       </c>
       <c r="AP3" t="n">
         <v>-0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.1051511031005562</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0</v>
+        <v>-0.03818507964260716</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3464410515650709</v>
+        <v>-0.3530766308360472</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.3548258345657799</v>
+        <v>-0.541549996136789</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
@@ -1732,49 +1732,49 @@
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.5276309333257004</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>0.1634796637323112</v>
       </c>
       <c r="BD3" t="n">
         <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.07779870314516418</v>
+        <v>0.02698136468125835</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.02761208695930037</v>
+        <v>0.06092847939886694</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
         <v>-0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.08737887118321483</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0.04608602159919486</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.4840927915540917</v>
+        <v>-0.2530356824841057</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.2849488853321204</v>
+        <v>-0.1449881209466137</v>
       </c>
       <c r="BQ3" t="n">
         <v>0</v>
@@ -1786,22 +1786,22 @@
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.01629652044924205</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0</v>
+        <v>0.01779190585904689</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.128371012268669</v>
+        <v>-0.04775373448945196</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.2511944885898375</v>
+        <v>-0.1233752154919273</v>
       </c>
       <c r="BZ3" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0.1843833733828273</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0.002286268598480553</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.1407548397403449</v>
+        <v>0.06413167662813925</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.1440118679929884</v>
+        <v>0.06323188940172896</v>
       </c>
       <c r="CI3" t="n">
         <v>-0</v>
@@ -1840,49 +1840,49 @@
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.09269909304693727</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0</v>
+        <v>0.001580100982804294</v>
       </c>
       <c r="CN3" t="n">
         <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.01198806755507858</v>
+        <v>-0.01471538604693685</v>
       </c>
       <c r="CP3" t="n">
         <v>-0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.2157181481863119</v>
+        <v>0.2374450849134288</v>
       </c>
       <c r="CR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0.1284140019666226</v>
+        <v>-0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>0.01087154471529396</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0.1649836398626431</v>
+        <v>0.04324383991446967</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.1957093647090473</v>
+        <v>0.01513214313651698</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>-0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.1076695904087823</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>-0.01076242878566388</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0.3205463642888562</v>
+        <v>-0.002756861936375317</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.3311093303071487</v>
+        <v>0.1326540132558651</v>
       </c>
       <c r="DJ3" t="n">
         <v>0</v>
@@ -1918,55 +1918,55 @@
         <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.005595618893866244</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0</v>
+        <v>0.1480106568137458</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.1573580928960291</v>
+        <v>0.05217661862735947</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.2995312679150542</v>
+        <v>0.04741500334327655</v>
       </c>
       <c r="DS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.1675343541323006</v>
+        <v>-0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0</v>
+        <v>0.08510630783778698</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.03638694387925906</v>
+        <v>0.07123073636064933</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.04707090863557901</v>
+        <v>0.04537820442409581</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC3" t="n">
         <v>0</v>
@@ -1975,22 +1975,22 @@
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.1437334782208933</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0.05821355359013301</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.1966314862441835</v>
+        <v>0.1088250151206514</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.03116529809572566</v>
+        <v>0.0295390567219349</v>
       </c>
       <c r="EK3" t="n">
         <v>-0</v>
@@ -2002,49 +2002,49 @@
         <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.0444390051272438</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0.07446356294530435</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.03927479035848997</v>
+        <v>0.01669078891289519</v>
       </c>
       <c r="ER3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.05090189064152038</v>
+        <v>0.1644261916277988</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
         <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.009766507999054867</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0.02792321163225335</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.1716203309661298</v>
+        <v>0.04276616884501446</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.1061175642336209</v>
+        <v>0.02355650584176437</v>
       </c>
       <c r="FC3" t="n">
         <v>0</v>
@@ -2056,22 +2056,22 @@
         <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.1344618418377797</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0</v>
+        <v>0.01337963365514319</v>
       </c>
       <c r="FH3" t="n">
         <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.01962809517018793</v>
+        <v>0.04223180367848891</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.1184402478596503</v>
+        <v>-0.08404363258113622</v>
       </c>
       <c r="FL3" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.1435313846673134</v>
+        <v>-0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>-0.01666165082720857</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0.003857045966051582</v>
+        <v>0.0008386009585747129</v>
       </c>
       <c r="FS3" t="n">
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.003123032427660243</v>
+        <v>0.006510783965198121</v>
       </c>
       <c r="FU3" t="n">
         <v>-0</v>
@@ -2110,132 +2110,132 @@
         <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>2.525101318966768e-05</v>
+        <v>-0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>0.04396697478506825</v>
       </c>
       <c r="FZ3" t="n">
         <v>0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.06990038362649575</v>
+        <v>-0.02687863487426656</v>
       </c>
       <c r="GB3" t="n">
         <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
         <v>0</v>
       </c>
       <c r="GE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.09745597341173332</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0.1997069690104532</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2892431093663152</v>
+        <v>-0.09372454709143174</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05822525291583629</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008659886337007892</v>
+        <v>-0.05150110357191914</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0.2314977245486841</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3082282466354397</v>
+        <v>-0.04442160435912353</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.05528643516272938</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>-0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.01329803367418319</v>
+        <v>0.0004257897987995061</v>
       </c>
       <c r="O4" t="n">
         <v>-0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>-0.02559525935625422</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02732914031933292</v>
+        <v>-0.108788834240615</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.006595358345227293</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.06155473135218437</v>
+        <v>-0.002160251176197418</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA4" t="n">
         <v>-0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0.03544277523620529</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.06683171624670113</v>
+        <v>-0.1266744065553315</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.008249023191411291</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01463528552682079</v>
+        <v>-0.02010848845857807</v>
       </c>
       <c r="AG4" t="n">
         <v>-0</v>
@@ -2250,79 +2250,79 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0.02816609115693182</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1227637163495593</v>
+        <v>-0.01490292480425753</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.0975288325265664</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.01740867889909692</v>
+        <v>0.01975555188097078</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ4" t="n">
         <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0.03336403162894757</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1722537962901704</v>
+        <v>-0.130150947853632</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.05091936892745209</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.007518776124702669</v>
+        <v>-0.1861954000201846</v>
       </c>
       <c r="AY4" t="n">
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0</v>
+        <v>0.1207159847444906</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.04209922426300197</v>
+        <v>0.02087784204866483</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.05486099200151896</v>
+        <v>-0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.07733932714849673</v>
+        <v>0.1119593945452708</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ4" t="n">
         <v>-0</v>
@@ -2331,73 +2331,73 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>0.01913473766573949</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.02277823357328623</v>
+        <v>-0.07477258932088117</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.007398685705517147</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.07212807442087046</v>
+        <v>-0.1485303300897753</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>-0.005115650978763295</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.08972482371622774</v>
+        <v>-0.1098023840964199</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.04889389045115321</v>
+        <v>-0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.05399275823555143</v>
+        <v>-0.09533980796319706</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0.0253224449253836</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0.06058940887685792</v>
+        <v>0.02781267380605353</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0.0004218323426700631</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.003944274948507399</v>
+        <v>0.01162189547588586</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
@@ -2406,52 +2406,52 @@
         <v>-0</v>
       </c>
       <c r="CK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0</v>
+        <v>0.0287471487803283</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.05056569126124662</v>
+        <v>0.0001039485897798076</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.009169955624267818</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
         <v>-0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.004455682627306848</v>
+        <v>0.0276837189155162</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS4" t="n">
         <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
         <v>-0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>-0.01168335407976136</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0.04556247294011376</v>
+        <v>0.0331869322931131</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.003513503665167716</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
         <v>-0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.008697767824197256</v>
+        <v>0.01029057142497208</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2463,28 +2463,28 @@
         <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>0.04142946086253905</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0.04785792179922252</v>
+        <v>0.07308533925766968</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.04363482331110654</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.02448609257506305</v>
+        <v>-0.02261554825124901</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL4" t="n">
         <v>-0</v>
@@ -2493,46 +2493,46 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0.004688975270188128</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.006167771817160216</v>
+        <v>0.05634047148967482</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.07017214128737974</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.05768771467991453</v>
+        <v>0.04159319115348156</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT4" t="n">
         <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV4" t="n">
         <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0.03064678752620842</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.03423674636665482</v>
+        <v>0.106987583541049</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.03539719050438758</v>
+        <v>-0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.02129387123050788</v>
+        <v>-0.05891538134248971</v>
       </c>
       <c r="EB4" t="n">
         <v>-0</v>
@@ -2547,19 +2547,19 @@
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>0.02145074406716358</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.0274202916688832</v>
+        <v>0.0303855346837259</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.07426737187996647</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.00800677560533818</v>
+        <v>-0.01407582478445989</v>
       </c>
       <c r="EK4" t="n">
         <v>-0</v>
@@ -2568,52 +2568,52 @@
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>0</v>
+        <v>0.04306486915803701</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0.01746995788736436</v>
+        <v>0.01891541421667597</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.001726099240393232</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0003007875433071979</v>
+        <v>0.07333871368747079</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV4" t="n">
         <v>-0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0.02125800049572997</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.04452592838936272</v>
+        <v>0.03376822579713681</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.008136326910295696</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.002634528149515282</v>
+        <v>0.03082494039596912</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2622,31 +2622,31 @@
         <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>0</v>
+        <v>-0.00536893247309096</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.06087297402609787</v>
+        <v>0.0005863164874417138</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.108291431410396</v>
+        <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.0323196545290022</v>
+        <v>0.08490742260533977</v>
       </c>
       <c r="FL4" t="n">
         <v>-0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>0</v>
@@ -2655,25 +2655,25 @@
         <v>-0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>-0.03441545341535564</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.08186786950836243</v>
+        <v>0.138233542879605</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0.01982390771891889</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.02597663032477215</v>
+        <v>0.1489209678209961</v>
       </c>
       <c r="FU4" t="n">
         <v>-0</v>
       </c>
       <c r="FV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW4" t="n">
         <v>-0</v>
@@ -2682,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0</v>
+        <v>0.05764810296912738</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0.006201033720338399</v>
+        <v>-0.004567870300908093</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0.02839326768240721</v>
+        <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD4" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
